--- a/data/trans_orig/Q15_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Clase-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01496723870705048</v>
+        <v>0.01524152591500569</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01608305085391313</v>
+        <v>0.01744439981381952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009450564730770859</v>
+        <v>0.009224524616169823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003643442814765122</v>
+        <v>0.004108700241652255</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.008875129181394199</v>
+        <v>0.009679648104020057</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01163632186117759</v>
+        <v>0.01209143136877853</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008308270881043507</v>
+        <v>0.008474731199256904</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01931699493436521</v>
+        <v>0.01929520338182688</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01513485833389572</v>
+        <v>0.0151188600704583</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01838678509533067</v>
+        <v>0.01881631788455924</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01261358166206791</v>
+        <v>0.01222930269242074</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01261494930315449</v>
+        <v>0.01323788263317294</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04634104775137355</v>
+        <v>0.04512354950764377</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05833563254031322</v>
+        <v>0.05686635673530915</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04589977447223849</v>
+        <v>0.04326563553609088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02294047393875975</v>
+        <v>0.02396646925585385</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04550421154238341</v>
+        <v>0.04795156905346434</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06469088961953373</v>
+        <v>0.06661930839580268</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04048314577947128</v>
+        <v>0.04072046265346133</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04368935330281982</v>
+        <v>0.043927509132169</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03891337756791058</v>
+        <v>0.03874374997403623</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04872614421886207</v>
+        <v>0.04954519561241117</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03380057789588214</v>
+        <v>0.03338298888660783</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02739961684581276</v>
+        <v>0.0279565906611183</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.01566716830208371</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04444831242373136</v>
+        <v>0.04444831242373135</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01502633365666955</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01790009824039764</v>
+        <v>0.01744091290199822</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01607700288500076</v>
+        <v>0.01639310828436823</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005311669928051982</v>
+        <v>0.005278955931560072</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01629687966766016</v>
+        <v>0.01625331330492194</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005110683940175757</v>
+        <v>0.005065644737224702</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.002886127540844117</v>
+        <v>0.002907895486275664</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01635035799513887</v>
+        <v>0.01672325691318189</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006956054581880702</v>
+        <v>0.006348939133957369</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01517327058548469</v>
+        <v>0.01450802161055626</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01154341449276543</v>
+        <v>0.01168312667475158</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01466081217421245</v>
+        <v>0.01597903474857077</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01534823582120176</v>
+        <v>0.01463907636972776</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06185989934455281</v>
+        <v>0.05986183530931574</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05026608692686397</v>
+        <v>0.04903592162570705</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03203677863943543</v>
+        <v>0.03156324657577212</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.141775223154501</v>
+        <v>0.1537172367690546</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03342623683121031</v>
+        <v>0.03237908924936965</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03414975449160457</v>
+        <v>0.03580890963991308</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05809695725590363</v>
+        <v>0.05893189630070153</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02564372465775509</v>
+        <v>0.02391395134926149</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03876304097133352</v>
+        <v>0.0385792010601763</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03327161772269039</v>
+        <v>0.03294894608074914</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03908473588086225</v>
+        <v>0.04045592967252346</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08585905715432439</v>
+        <v>0.08168883417980463</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.02094945658289079</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03426949645918387</v>
+        <v>0.03426949645918386</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02274793840625315</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0325433639515405</v>
+        <v>0.03424137714325297</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01639084425861763</v>
+        <v>0.01637471994153636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01019797349055748</v>
+        <v>0.01080040876445279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01846960916454009</v>
+        <v>0.01791005590631545</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005260987053999571</v>
+        <v>0.005255164491511288</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007552752236548161</v>
+        <v>0.007630982250849206</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.020180909354655</v>
+        <v>0.01929649916631139</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01881389425639758</v>
+        <v>0.01760094347052825</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02970326197015265</v>
+        <v>0.03015881071176208</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01675440629066306</v>
+        <v>0.01634726626861802</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01650089796627435</v>
+        <v>0.01570439850575282</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02171800578373442</v>
+        <v>0.02216527483340975</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07265786999381545</v>
+        <v>0.07546511775191332</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04561704457142374</v>
+        <v>0.04662370681866448</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03992594674604635</v>
+        <v>0.04044724943748409</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06333066523907221</v>
+        <v>0.05921394953248268</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05670166752161919</v>
+        <v>0.05885476673718439</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04746479308565441</v>
+        <v>0.05109799651467928</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1055940663076746</v>
+        <v>0.09917217049365684</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07625912914253366</v>
+        <v>0.07882280094429958</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06180908235065485</v>
+        <v>0.05998626928597588</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03972098876475309</v>
+        <v>0.03946037570795773</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04452207985746814</v>
+        <v>0.04679694902457741</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05491336590726729</v>
+        <v>0.0562721770778557</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01924885104935033</v>
+        <v>0.0195948389819469</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02299188641526714</v>
+        <v>0.0219595984459445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01497314584323069</v>
+        <v>0.0157055269246481</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01774764230539305</v>
+        <v>0.01834308991009738</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02169174364584801</v>
+        <v>0.02213854149382699</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01309817436409169</v>
+        <v>0.01326308432403283</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004949434517809901</v>
+        <v>0.005187078798544752</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01879144909957877</v>
+        <v>0.01898266104214839</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02272141418302244</v>
+        <v>0.02312918206104646</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02175673347027029</v>
+        <v>0.02123555729773261</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01285909875534727</v>
+        <v>0.01301935478753598</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02075996915256344</v>
+        <v>0.02080012099614191</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03988397538928772</v>
+        <v>0.0392099925603724</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04816778225760462</v>
+        <v>0.04729838561557814</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03341159411195772</v>
+        <v>0.03425272889537745</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0433500654666794</v>
+        <v>0.04436506106941892</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04934261012867797</v>
+        <v>0.04994668257319366</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03505326709368172</v>
+        <v>0.03578691082390831</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02162692469225476</v>
+        <v>0.0221953257163996</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04484325917796746</v>
+        <v>0.04323444809155845</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03997913114028928</v>
+        <v>0.03890843969703721</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03816621092835526</v>
+        <v>0.03900217257030799</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02571875617560235</v>
+        <v>0.02576802424679894</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03830712928153018</v>
+        <v>0.03790916344682361</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.03852030160869109</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04066943959362436</v>
+        <v>0.04066943959362435</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03937057207271814</v>
@@ -1237,7 +1237,7 @@
         <v>0.03384605713916664</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.0451424645711356</v>
+        <v>0.04514246457113559</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01723654111274295</v>
+        <v>0.01772589733618814</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01466938679907928</v>
+        <v>0.0141638924370348</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0258110613767899</v>
+        <v>0.02387244875743118</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02041071700060419</v>
+        <v>0.01908793113843439</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02577676530411249</v>
+        <v>0.02469309907673574</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02307914806582819</v>
+        <v>0.02276609982847061</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01804728956737551</v>
+        <v>0.01949268315530174</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0338956631083703</v>
+        <v>0.0343162712546838</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02563259188841242</v>
+        <v>0.02659842171015285</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02227591581703709</v>
+        <v>0.02130051751664983</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02500592500087249</v>
+        <v>0.02555453811907153</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03310360749304241</v>
+        <v>0.03253203866887054</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05764854021517873</v>
+        <v>0.06205808546550587</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04437875650876994</v>
+        <v>0.04478946873646749</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05666291805558862</v>
+        <v>0.05641843079188451</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09613468886847493</v>
+        <v>0.09136300512467575</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05995695077228204</v>
+        <v>0.05897070787431291</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05287314291961057</v>
+        <v>0.0512079965156277</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04553336793836329</v>
+        <v>0.04521625963214485</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06932036597689493</v>
+        <v>0.06667560487769965</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05175891423501332</v>
+        <v>0.05330441860030387</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0425205000012129</v>
+        <v>0.04398462270710654</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04488836507367591</v>
+        <v>0.04553516903576101</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07099577526577001</v>
+        <v>0.06768390165386705</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>0.03431655943002725</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.02379276791203618</v>
+        <v>0.02379276791203619</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02496595051179519</v>
+        <v>0.02763048520498994</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01074577910588579</v>
+        <v>0.01089488705715953</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03106266087414048</v>
+        <v>0.03022730382325241</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0136532597597013</v>
+        <v>0.01378845519174141</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02503174066135197</v>
+        <v>0.02637152645265865</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01904713037099162</v>
+        <v>0.01940635973616457</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01853609314711097</v>
+        <v>0.01764106312358522</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01832644670139293</v>
+        <v>0.01872351908392601</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02501364027003351</v>
+        <v>0.02417366447108665</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02422616735796368</v>
+        <v>0.02325719760440092</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01602071680888626</v>
+        <v>0.0159744146383593</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07862623531610768</v>
+        <v>0.07936525155250558</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05011828471294698</v>
+        <v>0.05052984613310186</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09831982693012802</v>
+        <v>0.098572386151189</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0576316297213085</v>
+        <v>0.05637233023755762</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03029406388450924</v>
+        <v>0.03067540365326593</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04890611322331123</v>
+        <v>0.05025344288906378</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04188224714016973</v>
+        <v>0.04436322995900517</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04056658146095649</v>
+        <v>0.04028664152045169</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03439312157966298</v>
+        <v>0.03552208133148354</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0464303064862594</v>
+        <v>0.04615150561609228</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04672965851689706</v>
+        <v>0.0459618065323377</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.03541398155921849</v>
+        <v>0.03546635069226797</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02847760013620855</v>
+        <v>0.02808552415637027</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02326822446333888</v>
+        <v>0.02382403845498156</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02202681192607694</v>
+        <v>0.02196881909543446</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02186328028565951</v>
+        <v>0.02141494700502555</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02038687085236577</v>
+        <v>0.02117375477136682</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02338674205076342</v>
+        <v>0.02333815949025513</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01960362466817981</v>
+        <v>0.02015466875231</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02672555246413226</v>
+        <v>0.02664502753770119</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02620144784633024</v>
+        <v>0.02633567377037227</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02510693549024472</v>
+        <v>0.02515381101420565</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02262683848732993</v>
+        <v>0.02215088801811965</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02540047142333168</v>
+        <v>0.02585449367223995</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04184489539179916</v>
+        <v>0.04201845894139234</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03590661939133077</v>
+        <v>0.03579392110707533</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03367048368023849</v>
+        <v>0.03411948283464342</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04280115195360545</v>
+        <v>0.04314691500519209</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03178712363281475</v>
+        <v>0.0325026061443886</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03617600991535298</v>
+        <v>0.03572919978303286</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03145553126186999</v>
+        <v>0.03128446390332337</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03819342960656179</v>
+        <v>0.0382761727585613</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03517251396929301</v>
+        <v>0.03536929615442807</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03378454986924949</v>
+        <v>0.03366571203424509</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03094887748197299</v>
+        <v>0.03083039877305633</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03716180581708294</v>
+        <v>0.03735494147839558</v>
       </c>
     </row>
     <row r="25">
